--- a/diem_danh_giay_29_10_24_11_12_00.xlsx
+++ b/diem_danh_giay_29_10_24_11_12_00.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Sổ điểm danh - Lớp WD19301
 Học kỳ Fall 2024 (..../..../....)</t>
@@ -419,56 +418,394 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -482,59 +819,344 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -542,22 +1164,25 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1524000" cy="666750"/>
+    <xdr:ext cx="1524000" cy="651510"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Logo" descr="FPT Polytechnic"/>
+        <xdr:cNvPr id="2" name="Logo" descr="FPT Polytechnic"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="325120" y="0"/>
+          <a:ext cx="1524000" cy="651510"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -849,35 +1474,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="54" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
@@ -907,7 +1529,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -935,7 +1557,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -988,19 +1610,19 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1"/>
@@ -1026,19 +1648,21 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1062,19 +1686,21 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1098,19 +1724,21 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1134,19 +1762,21 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1170,19 +1800,21 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1206,19 +1838,21 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1242,19 +1876,21 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1278,19 +1914,21 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1314,19 +1952,21 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1350,19 +1990,21 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>7</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1386,19 +2028,21 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1422,19 +2066,21 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1458,19 +2104,21 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1494,19 +2142,21 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1530,19 +2180,21 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1566,19 +2218,21 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1602,19 +2256,21 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1638,19 +2294,21 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1674,19 +2332,21 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1710,19 +2370,21 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1746,19 +2408,21 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1782,19 +2446,21 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1818,19 +2484,21 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1854,19 +2522,21 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1890,19 +2560,21 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1926,19 +2598,21 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1962,19 +2636,21 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1998,19 +2674,21 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2034,19 +2712,21 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>7</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2070,19 +2750,21 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2106,19 +2788,21 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2142,19 +2826,21 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2178,19 +2864,21 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2214,19 +2902,21 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2250,19 +2940,21 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2286,19 +2978,21 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2322,19 +3016,21 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2358,19 +3054,21 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2394,19 +3092,21 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2430,12 +3130,12 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2460,12 +3160,12 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2490,14 +3190,14 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2522,12 +3222,12 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2552,12 +3252,12 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2582,12 +3282,12 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2611,11 +3311,11 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" customHeight="1" ht="90">
+    <row r="51" ht="90" customHeight="1" spans="1:26">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E51" s="1"/>
@@ -2641,8 +3341,8 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" customHeight="1" ht="37.5">
-      <c r="A52" s="4" t="s">
+    <row r="52" ht="37.5" customHeight="1" spans="1:26">
+      <c r="A52" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B52" s="1"/>
@@ -29216,10 +29916,8 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="10">
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
@@ -29228,19 +29926,12 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:C3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <tableParts count="0"/>
 </worksheet>
 </file>